--- a/2014_icef/sc_14_icef.xlsx
+++ b/2014_icef/sc_14_icef.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28720" windowHeight="17560"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -155,9 +155,6 @@
     <t>sc_exam</t>
   </si>
   <si>
-    <t>dz_email</t>
-  </si>
-  <si>
     <t>p1</t>
   </si>
   <si>
@@ -171,6 +168,9 @@
   </si>
   <si>
     <t>p5</t>
+  </si>
+  <si>
+    <t>Анонимка, Романченко???</t>
   </si>
 </sst>
 </file>
@@ -226,12 +226,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -243,7 +249,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -265,8 +271,56 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -292,8 +346,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="21">
+  <cellStyles count="69">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -304,6 +370,30 @@
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -314,6 +404,30 @@
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -614,606 +728,1089 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I42"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I12" sqref="I12"/>
+      <selection pane="bottomRight" activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="33.33203125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="4" style="4" customWidth="1"/>
-    <col min="3" max="9" width="4" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.83203125" style="1"/>
+    <col min="2" max="2" width="4" style="1" customWidth="1"/>
+    <col min="3" max="8" width="4" style="10" customWidth="1"/>
+    <col min="9" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="6" customFormat="1" ht="36">
+    <row r="1" spans="1:8" s="6" customFormat="1" ht="36">
       <c r="A1" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="H1" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="I1" s="6" t="s">
+      <c r="H1" s="9" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:8">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="1">
-        <v>10</v>
-      </c>
-      <c r="D2" s="1">
-        <v>10</v>
-      </c>
-      <c r="E2" s="1">
-        <v>8</v>
-      </c>
-      <c r="F2" s="1">
-        <v>10</v>
-      </c>
-      <c r="G2" s="1">
-        <v>10</v>
-      </c>
-      <c r="H2" s="1">
+      <c r="B2" s="1">
+        <v>10</v>
+      </c>
+      <c r="C2" s="10">
+        <v>10</v>
+      </c>
+      <c r="D2" s="10">
+        <v>8</v>
+      </c>
+      <c r="E2" s="10">
+        <v>10</v>
+      </c>
+      <c r="F2" s="10">
+        <v>10</v>
+      </c>
+      <c r="G2" s="10">
         <v>18</v>
       </c>
-      <c r="I2" s="1">
-        <f>SUM(D2:H2)</f>
+      <c r="H2" s="10">
+        <f t="shared" ref="H2:H14" si="0">SUM(C2:G2)</f>
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:8">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="B3" s="1">
+        <v>10</v>
+      </c>
+      <c r="C3" s="10">
+        <v>10</v>
+      </c>
+      <c r="D3" s="10">
+        <v>10</v>
+      </c>
+      <c r="E3" s="10">
+        <v>10</v>
+      </c>
+      <c r="F3" s="10">
+        <v>10</v>
+      </c>
+      <c r="G3" s="10">
+        <v>17</v>
+      </c>
+      <c r="H3" s="10">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="3"/>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="C4" s="10">
+        <v>1</v>
+      </c>
+      <c r="D4" s="10">
+        <v>0</v>
+      </c>
+      <c r="E4" s="10">
+        <v>6</v>
+      </c>
+      <c r="F4" s="10">
+        <v>7</v>
+      </c>
+      <c r="G4" s="10">
+        <v>5</v>
+      </c>
+      <c r="H4" s="10">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="3"/>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="C5" s="10">
+        <v>10</v>
+      </c>
+      <c r="D5" s="10">
+        <v>0</v>
+      </c>
+      <c r="E5" s="10">
+        <v>4</v>
+      </c>
+      <c r="F5" s="10">
+        <v>5</v>
+      </c>
+      <c r="G5" s="10">
+        <v>0</v>
+      </c>
+      <c r="H5" s="10">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="B6" s="1">
+        <v>10</v>
+      </c>
+      <c r="C6" s="10">
+        <v>4</v>
+      </c>
+      <c r="D6" s="10">
+        <v>2</v>
+      </c>
+      <c r="E6" s="10">
+        <v>6</v>
+      </c>
+      <c r="F6" s="10">
+        <v>8</v>
+      </c>
+      <c r="G6" s="10">
+        <v>1</v>
+      </c>
+      <c r="H6" s="10">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="3">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="B7" s="1">
+        <v>10</v>
+      </c>
+      <c r="C7" s="10">
+        <v>10</v>
+      </c>
+      <c r="D7" s="10">
+        <v>0</v>
+      </c>
+      <c r="E7" s="10">
+        <v>4</v>
+      </c>
+      <c r="F7" s="10">
+        <v>0</v>
+      </c>
+      <c r="G7" s="10">
+        <v>10</v>
+      </c>
+      <c r="H7" s="10">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="3"/>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="B8" s="1">
+        <v>10</v>
+      </c>
+      <c r="C8" s="10">
+        <v>4</v>
+      </c>
+      <c r="D8" s="10">
+        <v>8</v>
+      </c>
+      <c r="E8" s="10">
+        <v>0</v>
+      </c>
+      <c r="F8" s="10">
+        <v>8</v>
+      </c>
+      <c r="G8" s="10">
+        <v>1</v>
+      </c>
+      <c r="H8" s="10">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="1">
+      <c r="B9" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="C9" s="10">
+        <v>3</v>
+      </c>
+      <c r="D9" s="10">
+        <v>0</v>
+      </c>
+      <c r="E9" s="10">
+        <v>3</v>
+      </c>
+      <c r="F9" s="10">
+        <v>4</v>
+      </c>
+      <c r="G9" s="10">
+        <v>1</v>
+      </c>
+      <c r="H9" s="10">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="3">
-        <v>1</v>
-      </c>
-      <c r="C10" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="B10" s="1">
+        <v>10</v>
+      </c>
+      <c r="C10" s="10">
+        <v>0</v>
+      </c>
+      <c r="D10" s="10">
+        <v>0</v>
+      </c>
+      <c r="E10" s="10">
+        <v>4</v>
+      </c>
+      <c r="F10" s="10">
+        <v>2</v>
+      </c>
+      <c r="G10" s="10">
+        <v>1</v>
+      </c>
+      <c r="H10" s="10">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="1">
+      <c r="B11" s="1">
         <v>9</v>
       </c>
-      <c r="D11" s="1">
+      <c r="C11" s="10">
         <v>5</v>
       </c>
-      <c r="E11" s="1">
-        <v>1</v>
-      </c>
-      <c r="F11" s="1">
+      <c r="D11" s="10">
+        <v>1</v>
+      </c>
+      <c r="E11" s="10">
         <v>5</v>
       </c>
-      <c r="G11" s="1">
-        <v>2</v>
-      </c>
-      <c r="H11" s="1">
+      <c r="F11" s="10">
+        <v>2</v>
+      </c>
+      <c r="G11" s="10">
         <v>7</v>
       </c>
-      <c r="I11" s="1">
-        <f>SUM(D11:H11)</f>
+      <c r="H11" s="10">
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:8">
       <c r="A12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="1">
+      <c r="B12" s="1">
         <v>9</v>
       </c>
-      <c r="D12" s="1">
+      <c r="C12" s="10">
         <v>6</v>
       </c>
-      <c r="E12" s="1">
-        <v>8</v>
-      </c>
-      <c r="F12" s="1">
-        <v>8</v>
-      </c>
-      <c r="G12" s="1">
+      <c r="D12" s="10">
+        <v>8</v>
+      </c>
+      <c r="E12" s="10">
+        <v>8</v>
+      </c>
+      <c r="F12" s="10">
         <v>6</v>
       </c>
-      <c r="H12" s="1">
+      <c r="G12" s="10">
         <v>18</v>
       </c>
-      <c r="I12" s="1">
-        <f>SUM(D12:H12)</f>
+      <c r="H12" s="10">
+        <f t="shared" si="0"/>
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:8">
       <c r="A13" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="3"/>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="C13" s="10">
+        <v>2</v>
+      </c>
+      <c r="D13" s="10">
+        <v>1</v>
+      </c>
+      <c r="E13" s="10">
+        <v>8</v>
+      </c>
+      <c r="F13" s="10">
+        <v>4</v>
+      </c>
+      <c r="G13" s="10">
+        <v>1</v>
+      </c>
+      <c r="H13" s="10">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="3">
-        <v>1</v>
-      </c>
-      <c r="C14" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" s="8" customFormat="1">
+      <c r="B14" s="1">
+        <v>10</v>
+      </c>
+      <c r="C14" s="10">
+        <v>2</v>
+      </c>
+      <c r="D14" s="10">
+        <v>1</v>
+      </c>
+      <c r="E14" s="10">
+        <v>0</v>
+      </c>
+      <c r="F14" s="10">
+        <v>8</v>
+      </c>
+      <c r="G14" s="10">
+        <v>1</v>
+      </c>
+      <c r="H14" s="10">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="8" customFormat="1">
       <c r="A15" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="7"/>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="3"/>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="C16" s="10">
+        <v>2</v>
+      </c>
+      <c r="D16" s="10">
+        <v>10</v>
+      </c>
+      <c r="E16" s="10">
+        <v>8</v>
+      </c>
+      <c r="F16" s="10">
+        <v>0</v>
+      </c>
+      <c r="G16" s="10">
+        <v>5</v>
+      </c>
+      <c r="H16" s="10">
+        <f>SUM(C16:G16)</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="D17" s="1">
-        <v>2</v>
-      </c>
-      <c r="E17" s="1">
+      <c r="C17" s="10">
+        <v>2</v>
+      </c>
+      <c r="D17" s="10">
         <v>6</v>
       </c>
-      <c r="F17" s="1">
+      <c r="E17" s="10">
         <v>6</v>
       </c>
-      <c r="G17" s="1">
+      <c r="F17" s="10">
         <v>7</v>
       </c>
-      <c r="H17" s="1">
-        <v>1</v>
-      </c>
-      <c r="I17" s="1">
-        <f>SUM(D17:H17)</f>
+      <c r="G17" s="10">
+        <v>1</v>
+      </c>
+      <c r="H17" s="10">
+        <f>SUM(C17:G17)</f>
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:8">
       <c r="A18" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="1">
+      <c r="B18" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="C18" s="10">
+        <v>2</v>
+      </c>
+      <c r="D18" s="10">
+        <v>2</v>
+      </c>
+      <c r="E18" s="10">
+        <v>5</v>
+      </c>
+      <c r="F18" s="10">
+        <v>2</v>
+      </c>
+      <c r="G18" s="10">
+        <v>5</v>
+      </c>
+      <c r="H18" s="10">
+        <f>SUM(C18:G18)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="1">
-        <v>10</v>
-      </c>
-      <c r="D19" s="1">
+      <c r="B19" s="1">
+        <v>10</v>
+      </c>
+      <c r="C19" s="10">
         <v>7</v>
       </c>
-      <c r="E19" s="1">
+      <c r="D19" s="10">
         <v>4</v>
       </c>
-      <c r="F19" s="1">
+      <c r="E19" s="10">
         <v>6</v>
       </c>
-      <c r="G19" s="1">
+      <c r="F19" s="10">
         <v>5</v>
       </c>
-      <c r="H19" s="1">
+      <c r="G19" s="10">
         <v>7</v>
       </c>
-      <c r="I19" s="1">
-        <f>SUM(D19:H19)</f>
+      <c r="H19" s="10">
+        <f>SUM(C19:G19)</f>
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:8">
       <c r="A20" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="3"/>
-    </row>
-    <row r="21" spans="1:9" s="8" customFormat="1">
+    </row>
+    <row r="21" spans="1:8" s="8" customFormat="1">
       <c r="A21" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="7"/>
-      <c r="D21" s="8">
-        <v>10</v>
-      </c>
-      <c r="E21" s="8">
+      <c r="C21" s="11">
+        <v>10</v>
+      </c>
+      <c r="D21" s="11">
         <v>6</v>
       </c>
-      <c r="F21" s="8">
+      <c r="E21" s="11">
         <v>4</v>
       </c>
-      <c r="G21" s="8">
-        <v>8</v>
-      </c>
-      <c r="H21" s="8">
+      <c r="F21" s="11">
+        <v>8</v>
+      </c>
+      <c r="G21" s="11">
         <v>15</v>
       </c>
-      <c r="I21" s="1">
-        <f>SUM(D21:H21)</f>
+      <c r="H21" s="10">
+        <f t="shared" ref="H21:H29" si="1">SUM(C21:G21)</f>
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:8">
       <c r="A22" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="3"/>
-    </row>
-    <row r="23" spans="1:9">
+      <c r="C22" s="10">
+        <v>2</v>
+      </c>
+      <c r="D22" s="10">
+        <v>8</v>
+      </c>
+      <c r="E22" s="10">
+        <v>1</v>
+      </c>
+      <c r="F22" s="10">
+        <v>6</v>
+      </c>
+      <c r="G22" s="10">
+        <v>5</v>
+      </c>
+      <c r="H22" s="10">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="1">
+      <c r="B23" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="24" spans="1:9">
+      <c r="C23" s="10">
+        <v>4</v>
+      </c>
+      <c r="D23" s="10">
+        <v>2</v>
+      </c>
+      <c r="E23" s="10">
+        <v>3</v>
+      </c>
+      <c r="F23" s="10">
+        <v>3</v>
+      </c>
+      <c r="G23" s="10">
+        <v>1</v>
+      </c>
+      <c r="H23" s="10">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="3"/>
-    </row>
-    <row r="25" spans="1:9">
+      <c r="C24" s="10">
+        <v>4</v>
+      </c>
+      <c r="D24" s="10">
+        <v>4</v>
+      </c>
+      <c r="E24" s="10">
+        <v>4</v>
+      </c>
+      <c r="F24" s="10">
+        <v>2</v>
+      </c>
+      <c r="G24" s="10">
+        <v>10</v>
+      </c>
+      <c r="H24" s="10">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="3"/>
-    </row>
-    <row r="26" spans="1:9">
+      <c r="C25" s="10">
+        <v>8</v>
+      </c>
+      <c r="D25" s="10">
+        <v>2</v>
+      </c>
+      <c r="E25" s="10">
+        <v>2</v>
+      </c>
+      <c r="F25" s="10">
+        <v>0</v>
+      </c>
+      <c r="G25" s="10">
+        <v>5</v>
+      </c>
+      <c r="H25" s="10">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+      <c r="B26" s="1">
+        <v>10</v>
+      </c>
+      <c r="C26" s="10">
+        <v>10</v>
+      </c>
+      <c r="D26" s="10">
+        <v>7</v>
+      </c>
+      <c r="E26" s="10">
+        <v>8</v>
+      </c>
+      <c r="F26" s="10">
+        <v>10</v>
+      </c>
+      <c r="G26" s="10">
+        <v>18</v>
+      </c>
+      <c r="H26" s="10">
+        <f t="shared" si="1"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B27" s="3">
-        <v>1</v>
-      </c>
-      <c r="C27" s="1">
+      <c r="B27" s="1">
         <v>7</v>
       </c>
-      <c r="D27" s="1">
+      <c r="C27" s="10">
         <v>0</v>
       </c>
-      <c r="E27" s="1">
+      <c r="D27" s="10">
         <v>0</v>
       </c>
-      <c r="F27" s="1">
+      <c r="E27" s="10">
         <v>6</v>
       </c>
-      <c r="G27" s="1">
-        <v>1</v>
-      </c>
-      <c r="H27" s="1">
-        <v>1</v>
-      </c>
-      <c r="I27" s="1">
-        <f>SUM(D27:H27)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+      <c r="F27" s="10">
+        <v>1</v>
+      </c>
+      <c r="G27" s="10">
+        <v>1</v>
+      </c>
+      <c r="H27" s="10">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+      <c r="B28" s="1">
+        <v>10</v>
+      </c>
+      <c r="C28" s="10">
+        <v>3</v>
+      </c>
+      <c r="D28" s="10">
+        <v>2</v>
+      </c>
+      <c r="E28" s="10">
+        <v>8</v>
+      </c>
+      <c r="F28" s="10">
+        <v>0</v>
+      </c>
+      <c r="G28" s="10">
+        <v>20</v>
+      </c>
+      <c r="H28" s="10">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="1">
-        <v>10</v>
-      </c>
-      <c r="D29" s="1">
+      <c r="B29" s="1">
+        <v>10</v>
+      </c>
+      <c r="C29" s="10">
         <v>9</v>
       </c>
-      <c r="E29" s="1">
-        <v>8</v>
-      </c>
-      <c r="F29" s="1">
+      <c r="D29" s="10">
+        <v>8</v>
+      </c>
+      <c r="E29" s="10">
         <v>6</v>
       </c>
-      <c r="G29" s="1">
-        <v>8</v>
-      </c>
-      <c r="H29" s="1">
+      <c r="F29" s="10">
+        <v>8</v>
+      </c>
+      <c r="G29" s="10">
         <v>5</v>
       </c>
-      <c r="I29" s="1">
-        <f>SUM(D29:H29)</f>
+      <c r="H29" s="10">
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:8">
       <c r="A30" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B30" s="3"/>
-      <c r="C30" s="1">
+      <c r="B30" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:9" s="8" customFormat="1">
+    <row r="31" spans="1:8" s="8" customFormat="1">
       <c r="A31" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B31" s="7"/>
-      <c r="D31" s="8">
+      <c r="C31" s="11">
         <v>6</v>
       </c>
-      <c r="E31" s="8">
-        <v>1</v>
-      </c>
-      <c r="F31" s="8">
+      <c r="D31" s="11">
+        <v>1</v>
+      </c>
+      <c r="E31" s="11">
         <v>4</v>
       </c>
-      <c r="G31" s="8">
+      <c r="F31" s="11">
         <v>0</v>
       </c>
-      <c r="H31" s="8">
+      <c r="G31" s="11">
         <v>16</v>
       </c>
-      <c r="I31" s="1">
-        <f>SUM(D31:H31)</f>
+      <c r="H31" s="10">
+        <f t="shared" ref="H31:H43" si="2">SUM(C31:G31)</f>
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:9" s="2" customFormat="1" ht="14">
+    <row r="32" spans="1:8" s="2" customFormat="1" ht="14">
       <c r="A32" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B32" s="3"/>
-      <c r="D32" s="2">
-        <v>1</v>
-      </c>
-      <c r="E32" s="2">
-        <v>8</v>
-      </c>
-      <c r="F32" s="2">
-        <v>2</v>
-      </c>
-      <c r="G32" s="2">
+      <c r="C32" s="12">
+        <v>1</v>
+      </c>
+      <c r="D32" s="12">
+        <v>8</v>
+      </c>
+      <c r="E32" s="12">
+        <v>2</v>
+      </c>
+      <c r="F32" s="12">
         <v>5</v>
       </c>
-      <c r="H32" s="2">
-        <v>1</v>
-      </c>
-      <c r="I32" s="1">
-        <f>SUM(D32:H32)</f>
+      <c r="G32" s="12">
+        <v>1</v>
+      </c>
+      <c r="H32" s="10">
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="1:9" s="2" customFormat="1" ht="14">
+    <row r="33" spans="1:8" s="2" customFormat="1" ht="14">
       <c r="A33" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B33" s="3"/>
-    </row>
-    <row r="34" spans="1:9">
+      <c r="C33" s="12">
+        <v>2</v>
+      </c>
+      <c r="D33" s="12">
+        <v>0</v>
+      </c>
+      <c r="E33" s="12">
+        <v>6</v>
+      </c>
+      <c r="F33" s="12">
+        <v>2</v>
+      </c>
+      <c r="G33" s="12">
+        <v>6</v>
+      </c>
+      <c r="H33" s="10">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B34" s="3">
-        <v>1</v>
-      </c>
-      <c r="C34" s="1">
+      <c r="B34" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" s="2" customFormat="1" ht="14">
+      <c r="C34" s="10">
+        <v>2</v>
+      </c>
+      <c r="D34" s="10">
+        <v>6</v>
+      </c>
+      <c r="E34" s="10">
+        <v>3</v>
+      </c>
+      <c r="F34" s="10">
+        <v>5</v>
+      </c>
+      <c r="G34" s="10">
+        <v>5</v>
+      </c>
+      <c r="H34" s="10">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" s="2" customFormat="1" ht="14">
       <c r="A35" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B35" s="3"/>
-      <c r="C35" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" s="2" customFormat="1" ht="14">
+      <c r="B35" s="2">
+        <v>10</v>
+      </c>
+      <c r="C35" s="12">
+        <v>2</v>
+      </c>
+      <c r="D35" s="12">
+        <v>1</v>
+      </c>
+      <c r="E35" s="12">
+        <v>10</v>
+      </c>
+      <c r="F35" s="12">
+        <v>7</v>
+      </c>
+      <c r="G35" s="12">
+        <v>5</v>
+      </c>
+      <c r="H35" s="10">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" s="2" customFormat="1" ht="14">
       <c r="A36" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B36" s="3">
-        <v>1</v>
-      </c>
-      <c r="C36" s="2">
-        <v>10</v>
-      </c>
-      <c r="D36" s="2">
-        <v>10</v>
-      </c>
-      <c r="E36" s="2">
-        <v>10</v>
-      </c>
-      <c r="F36" s="2">
-        <v>10</v>
-      </c>
-      <c r="G36" s="2">
-        <v>10</v>
-      </c>
-      <c r="H36" s="2">
+      <c r="B36" s="2">
+        <v>10</v>
+      </c>
+      <c r="C36" s="12">
+        <v>8</v>
+      </c>
+      <c r="D36" s="12">
+        <v>10</v>
+      </c>
+      <c r="E36" s="12">
+        <v>10</v>
+      </c>
+      <c r="F36" s="12">
+        <v>10</v>
+      </c>
+      <c r="G36" s="12">
         <v>20</v>
       </c>
-      <c r="I36" s="1">
-        <f>SUM(D36:H36)</f>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+      <c r="H36" s="10">
+        <f t="shared" si="2"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B37" s="3">
-        <v>1</v>
-      </c>
-      <c r="C37" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+      <c r="B37" s="1">
+        <v>10</v>
+      </c>
+      <c r="C37" s="10">
+        <v>10</v>
+      </c>
+      <c r="D37" s="10">
+        <v>8</v>
+      </c>
+      <c r="E37" s="10">
+        <v>10</v>
+      </c>
+      <c r="F37" s="10">
+        <v>10</v>
+      </c>
+      <c r="G37" s="10">
+        <v>20</v>
+      </c>
+      <c r="H37" s="10">
+        <f t="shared" si="2"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B38" s="3">
-        <v>1</v>
-      </c>
-      <c r="C38" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+      <c r="B38" s="1">
+        <v>10</v>
+      </c>
+      <c r="C38" s="10">
+        <v>10</v>
+      </c>
+      <c r="D38" s="10">
+        <v>7</v>
+      </c>
+      <c r="E38" s="10">
+        <v>5</v>
+      </c>
+      <c r="F38" s="10">
+        <v>7</v>
+      </c>
+      <c r="G38" s="10">
+        <v>18</v>
+      </c>
+      <c r="H38" s="10">
+        <f t="shared" si="2"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B39" s="3"/>
-      <c r="C39" s="1">
+      <c r="B39" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="40" spans="1:9">
+      <c r="C39" s="10">
+        <v>10</v>
+      </c>
+      <c r="D39" s="10">
+        <v>2</v>
+      </c>
+      <c r="E39" s="10">
+        <v>7</v>
+      </c>
+      <c r="F39" s="10">
+        <v>8</v>
+      </c>
+      <c r="G39" s="10">
+        <v>18</v>
+      </c>
+      <c r="H39" s="10">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B40" s="3"/>
-      <c r="C40" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" s="8" customFormat="1">
+      <c r="B40" s="1">
+        <v>8</v>
+      </c>
+      <c r="C40" s="10">
+        <v>4</v>
+      </c>
+      <c r="D40" s="10">
+        <v>0</v>
+      </c>
+      <c r="E40" s="10">
+        <v>8</v>
+      </c>
+      <c r="F40" s="10">
+        <v>7</v>
+      </c>
+      <c r="G40" s="10">
+        <v>10</v>
+      </c>
+      <c r="H40" s="10">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" s="8" customFormat="1">
       <c r="A41" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B41" s="7"/>
-      <c r="C41" s="8">
+      <c r="B41" s="8">
         <v>9</v>
       </c>
-    </row>
-    <row r="42" spans="1:9">
+      <c r="C41" s="11">
+        <v>7</v>
+      </c>
+      <c r="D41" s="11">
+        <v>10</v>
+      </c>
+      <c r="E41" s="11">
+        <v>4</v>
+      </c>
+      <c r="F41" s="11">
+        <v>8</v>
+      </c>
+      <c r="G41" s="11">
+        <v>1</v>
+      </c>
+      <c r="H41" s="10">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B42" s="3"/>
-      <c r="C42" s="1">
-        <v>10</v>
+      <c r="B42" s="1">
+        <v>10</v>
+      </c>
+      <c r="C42" s="10">
+        <v>3</v>
+      </c>
+      <c r="D42" s="10">
+        <v>3</v>
+      </c>
+      <c r="E42" s="10">
+        <v>8</v>
+      </c>
+      <c r="F42" s="10">
+        <v>10</v>
+      </c>
+      <c r="G42" s="10">
+        <v>20</v>
+      </c>
+      <c r="H42" s="10">
+        <f t="shared" si="2"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C43" s="10">
+        <v>2</v>
+      </c>
+      <c r="D43" s="10">
+        <v>2</v>
+      </c>
+      <c r="E43" s="10">
+        <v>6</v>
+      </c>
+      <c r="F43" s="10">
+        <v>4</v>
+      </c>
+      <c r="G43" s="10">
+        <v>1</v>
+      </c>
+      <c r="H43" s="10">
+        <f t="shared" si="2"/>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
